--- a/tables/budj_osob.xlsx
+++ b/tables/budj_osob.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t>161-183-881 62</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>162-211-319 11</t>
+  </si>
+  <si>
+    <t>Тарасов Андрей Александрович</t>
   </si>
   <si>
     <t xml:space="preserve">ПИ Ц </t>
@@ -529,20 +532,23 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P4" t="s">
         <v>7</v>
       </c>
       <c r="Q4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s">
         <v>9</v>
@@ -553,19 +559,19 @@
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="P5" t="s">
         <v>7</v>
       </c>
       <c r="Q5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S5" t="s">
         <v>9</v>

--- a/tables/budj_osob.xlsx
+++ b/tables/budj_osob.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
   <si>
     <t>161-183-881 62</t>
   </si>
@@ -22,10 +22,10 @@
     <t>Баженов Данила Дмитриевич</t>
   </si>
   <si>
-    <t xml:space="preserve">КБ ОП </t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИ ЗО ОП </t>
+    <t>КБ ОП</t>
+  </si>
+  <si>
+    <t>ПИ ЗО ОП</t>
   </si>
   <si>
     <t>88</t>
@@ -37,45 +37,48 @@
     <t>48</t>
   </si>
   <si>
+    <t>Оригинал</t>
+  </si>
+  <si>
+    <t>1 - БИ ОП 3 - Менедж ОП 4 - ИСТ ОП</t>
+  </si>
+  <si>
+    <t>госуслуги</t>
+  </si>
+  <si>
+    <t>163-393-138 69</t>
+  </si>
+  <si>
+    <t>Айталиева Мадина Муратовна</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ПИ ЗО ОК </t>
+  </si>
+  <si>
+    <t>копия</t>
+  </si>
+  <si>
+    <t>146-853-262 87</t>
+  </si>
+  <si>
+    <t>ИВТ ИВТ ОП</t>
+  </si>
+  <si>
+    <t>ФИИТ ФИИТ ОП</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
     <t>Копия</t>
   </si>
   <si>
-    <t>1 - БИ ОП 3 - Менедж ОП 4 - ИСТ ОП</t>
-  </si>
-  <si>
-    <t>госуслуги</t>
-  </si>
-  <si>
-    <t>163-393-138 69</t>
-  </si>
-  <si>
-    <t>Айталиева Мадина Муратовна</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИ ЗО ОК </t>
-  </si>
-  <si>
-    <t>копия</t>
-  </si>
-  <si>
-    <t>146-853-262 87</t>
-  </si>
-  <si>
-    <t>ИВТ ИВТ ОП</t>
-  </si>
-  <si>
-    <t>ФИИТ ФИИТ ОП</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
     <t>1 - ПРИ мех 1 - ПРИ мех ОП 2 - ПМИ 2 - ПМИ ОП 3 - МКН 3 - МКН ОП</t>
   </si>
   <si>
@@ -88,7 +91,7 @@
     <t>Тарасов Андрей Александрович</t>
   </si>
   <si>
-    <t xml:space="preserve">ПИ Ц </t>
+    <t>ПИ Ц</t>
   </si>
   <si>
     <t xml:space="preserve">ПИ ОП </t>
@@ -107,6 +110,135 @@
   </si>
   <si>
     <t>2 - ПРИ экон мех  ЗО 2 - ПРИ экон мех  ЗО ОК 3 - ППО  ЗО ОК 4 - ПРИ соц  ЗО ОК 5 - ППО  ЗО ОК 6 - Соц  ЗО ОК 7 - Серв  ЗО ОК</t>
+  </si>
+  <si>
+    <t>161-382-317 47</t>
+  </si>
+  <si>
+    <t>ПИ ПИ ОП</t>
+  </si>
+  <si>
+    <t>МОАИС МОАИС ОП</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>4 - БИ 4 - БИ ОП 5 - ПРИ мех 5 - ПРИ мех ОП</t>
+  </si>
+  <si>
+    <t>000124094</t>
+  </si>
+  <si>
+    <t>ФИИТ ФИИТ ОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ИВТ ОК ИВТ </t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>1 - БИ 1 - БИ ОК 2 - ПРИ мех 2 - ПРИ мех ОК 4 - ИСТ 4 - ИСТ ОК 5 - ПРИ соц 5 - ПРИ соц ОК</t>
+  </si>
+  <si>
+    <t>000125637</t>
+  </si>
+  <si>
+    <t>МОАИС МОАИС ОК</t>
+  </si>
+  <si>
+    <t>ИВТ ИВТ ОК</t>
+  </si>
+  <si>
+    <t>ПИ ПИ ОК</t>
+  </si>
+  <si>
+    <t>КБ ОК КБ</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>158-166-377 94</t>
+  </si>
+  <si>
+    <t>ФИИТ</t>
+  </si>
+  <si>
+    <t>ИВТ</t>
+  </si>
+  <si>
+    <t>МОАИС</t>
+  </si>
+  <si>
+    <t>КБ</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>000124038</t>
+  </si>
+  <si>
+    <t>ПИ ОК ПИ</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>161-221-346 12</t>
+  </si>
+  <si>
+    <t>КБ КБ ОП</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>2 - БИ 2 - БИ ОП 3 - ПМИ 3 - ПМИ ОП 4 - Менедж 4 - Менедж ОП</t>
   </si>
 </sst>
 </file>
@@ -438,7 +570,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,68 +648,407 @@
         <v>19</v>
       </c>
       <c r="P3" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S3" t="s">
         <v>9</v>
       </c>
       <c r="T3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="Q4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="S4" t="s">
         <v>9</v>
       </c>
       <c r="T4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>31</v>
+      </c>
+      <c r="S5" t="s">
+        <v>9</v>
+      </c>
+      <c r="T5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>34</v>
+      </c>
+      <c r="J6" t="s">
+        <v>35</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
+      <c r="M6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+      <c r="J7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>45</v>
+      </c>
+      <c r="N7" t="s">
+        <v>46</v>
+      </c>
+      <c r="P7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>47</v>
+      </c>
+      <c r="S7" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+      <c r="H8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S8" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" t="s">
+        <v>59</v>
+      </c>
+      <c r="H9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s">
         <v>7</v>
       </c>
-      <c r="Q5" t="s">
-        <v>30</v>
-      </c>
-      <c r="S5" t="s">
-        <v>9</v>
-      </c>
-      <c r="T5" t="s">
-        <v>21</v>
+      <c r="S9" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J10" t="s">
+        <v>66</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
+      </c>
+      <c r="L10" t="s">
+        <v>62</v>
+      </c>
+      <c r="M10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+      <c r="S10" t="s">
+        <v>9</v>
+      </c>
+      <c r="T10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="K11" t="s">
+        <v>71</v>
+      </c>
+      <c r="L11" t="s">
+        <v>72</v>
+      </c>
+      <c r="M11" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S11" t="s">
+        <v>9</v>
+      </c>
+      <c r="T11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>39</v>
+      </c>
+      <c r="F12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" t="s">
+        <v>43</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>45</v>
+      </c>
+      <c r="N12" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>47</v>
+      </c>
+      <c r="S12" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" t="s">
+        <v>51</v>
+      </c>
+      <c r="G13" t="s">
+        <v>52</v>
+      </c>
+      <c r="H13" t="s">
+        <v>40</v>
+      </c>
+      <c r="J13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K13" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" t="s">
+        <v>20</v>
+      </c>
+      <c r="S13" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" t="s">
+        <v>66</v>
+      </c>
+      <c r="K14" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" t="s">
+        <v>62</v>
+      </c>
+      <c r="M14" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" t="s">
+        <v>46</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="S14" t="s">
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/tables/budj_osob.xlsx
+++ b/tables/budj_osob.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="104">
   <si>
     <t>161-183-881 62</t>
   </si>
@@ -239,6 +239,93 @@
   </si>
   <si>
     <t>2 - БИ 2 - БИ ОП 3 - ПМИ 3 - ПМИ ОП 4 - Менедж 4 - Менедж ОП</t>
+  </si>
+  <si>
+    <t>ОП</t>
+  </si>
+  <si>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 - БИ 4 - БИ ОП 5 - ПРИ мех 5 - ПРИ мех ОП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ мех 1 - ПРИ мех ОП 2 - ПМИ 2 - ПМИ ОП 3 - МКН 3 - МКН ОП </t>
+  </si>
+  <si>
+    <t>145-468-868 04</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ПРИ мех ОП 4 - ИСТ ОП </t>
+  </si>
+  <si>
+    <t>160-471-801 44</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>139-053-433 53</t>
+  </si>
+  <si>
+    <t>САУ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 - ПРИ мех ОП 6 - ПРИ соц ОП </t>
+  </si>
+  <si>
+    <t>124094</t>
+  </si>
+  <si>
+    <t>ОК</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - БИ 1 - БИ ОК 2 - ПРИ мех 2 - ПРИ мех ОК 4 - ИСТ 4 - ИСТ ОК 5 - ПРИ соц 5 - ПРИ соц ОК </t>
+  </si>
+  <si>
+    <t>125637</t>
+  </si>
+  <si>
+    <t>176-329-755 05</t>
+  </si>
+  <si>
+    <t>124038</t>
+  </si>
+  <si>
+    <t>126364</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ИСТ 2 - ИСТ ОК 4 - ПРИ мех 4 - ПРИ мех ОК 5 - ПМИ 5 - ПМИ ОК </t>
+  </si>
+  <si>
+    <t>126693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ПРИ мех 1 - ПРИ мех ОК </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ЭиН ОП 2 - Экон ОП 4 - Тамож ОП 5 - Менедж ОП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - БИ 2 - БИ ОП 3 - ПМИ 3 - ПМИ ОП 4 - Менедж 4 - Менедж ОП </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - БИ ОП 3 - Менедж ОП 4 - ИСТ ОП </t>
   </si>
 </sst>
 </file>
@@ -570,7 +657,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T14"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -939,115 +1026,610 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s">
+        <v>57</v>
       </c>
       <c r="F12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="J12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L12" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="N12" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="P12" t="s">
         <v>20</v>
       </c>
       <c r="Q12" t="s">
-        <v>47</v>
+        <v>77</v>
+      </c>
+      <c r="R12" t="s">
+        <v>9</v>
       </c>
       <c r="S12" t="s">
-        <v>9</v>
-      </c>
-      <c r="T12" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" t="s">
-        <v>51</v>
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>75</v>
       </c>
       <c r="G13" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="J13" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="K13" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N13" t="s">
+        <v>27</v>
       </c>
       <c r="P13" t="s">
         <v>20</v>
       </c>
+      <c r="Q13" t="s">
+        <v>78</v>
+      </c>
+      <c r="R13" t="s">
+        <v>9</v>
+      </c>
       <c r="S13" t="s">
-        <v>9</v>
-      </c>
-      <c r="T13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>64</v>
+        <v>79</v>
+      </c>
+      <c r="C14" t="s">
+        <v>75</v>
       </c>
       <c r="D14" t="s">
-        <v>65</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
+        <v>60</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
+      </c>
+      <c r="H14" t="s">
+        <v>57</v>
       </c>
       <c r="J14" t="s">
+        <v>80</v>
+      </c>
+      <c r="K14" t="s">
+        <v>5</v>
+      </c>
+      <c r="L14" t="s">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s">
+        <v>81</v>
+      </c>
+      <c r="N14" t="s">
+        <v>27</v>
+      </c>
+      <c r="P14" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>82</v>
+      </c>
+      <c r="R14" t="s">
+        <v>9</v>
+      </c>
+      <c r="S14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>27</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" t="s">
+        <v>7</v>
+      </c>
+      <c r="R15" t="s">
+        <v>9</v>
+      </c>
+      <c r="S15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>59</v>
+      </c>
+      <c r="E16" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>87</v>
+      </c>
+      <c r="R16" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
+      <c r="A17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>57</v>
+      </c>
+      <c r="I17" t="s">
+        <v>58</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" t="s">
+        <v>43</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>45</v>
+      </c>
+      <c r="N17" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>90</v>
+      </c>
+      <c r="R17" t="s">
+        <v>9</v>
+      </c>
+      <c r="S17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="A18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="E18" t="s">
+        <v>58</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
+        <v>60</v>
+      </c>
+      <c r="H18" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" t="s">
+        <v>53</v>
+      </c>
+      <c r="K18" t="s">
+        <v>54</v>
+      </c>
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s">
+        <v>20</v>
+      </c>
+      <c r="R18" t="s">
+        <v>9</v>
+      </c>
+      <c r="S18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
+      <c r="A19" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" t="s">
+        <v>75</v>
+      </c>
+      <c r="D19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" t="s">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L19" t="s">
+        <v>27</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>27</v>
+      </c>
+      <c r="P19" t="s">
+        <v>7</v>
+      </c>
+      <c r="R19" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
+      <c r="A20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" t="s">
         <v>66</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K20" t="s">
         <v>67</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L20" t="s">
         <v>62</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M20" t="s">
         <v>43</v>
       </c>
-      <c r="N14" t="s">
+      <c r="N20" t="s">
         <v>46</v>
       </c>
-      <c r="P14" t="s">
-        <v>20</v>
-      </c>
-      <c r="S14" t="s">
-        <v>9</v>
-      </c>
-      <c r="T14" t="s">
+      <c r="P20" t="s">
+        <v>20</v>
+      </c>
+      <c r="R20" t="s">
+        <v>9</v>
+      </c>
+      <c r="S20" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
+      <c r="A21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F21" t="s">
+        <v>58</v>
+      </c>
+      <c r="J21" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L21" t="s">
+        <v>55</v>
+      </c>
+      <c r="M21" t="s">
+        <v>97</v>
+      </c>
+      <c r="N21" t="s">
+        <v>27</v>
+      </c>
+      <c r="P21" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>98</v>
+      </c>
+      <c r="R21" t="s">
+        <v>9</v>
+      </c>
+      <c r="S21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" t="s">
+        <v>27</v>
+      </c>
+      <c r="L22" t="s">
+        <v>27</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>27</v>
+      </c>
+      <c r="P22" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>100</v>
+      </c>
+      <c r="R22" t="s">
+        <v>9</v>
+      </c>
+      <c r="S22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
+      <c r="A23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J23" t="s">
+        <v>61</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>62</v>
+      </c>
+      <c r="M23" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" t="s">
+        <v>27</v>
+      </c>
+      <c r="P23" t="s">
+        <v>7</v>
+      </c>
+      <c r="R23" t="s">
+        <v>9</v>
+      </c>
+      <c r="S23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="I24" t="s">
+        <v>76</v>
+      </c>
+      <c r="J24" t="s">
+        <v>27</v>
+      </c>
+      <c r="K24" t="s">
+        <v>27</v>
+      </c>
+      <c r="L24" t="s">
+        <v>27</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>27</v>
+      </c>
+      <c r="P24" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>101</v>
+      </c>
+      <c r="R24" t="s">
+        <v>9</v>
+      </c>
+      <c r="S24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
+        <v>60</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25" t="s">
+        <v>71</v>
+      </c>
+      <c r="L25" t="s">
+        <v>72</v>
+      </c>
+      <c r="M25" t="s">
+        <v>73</v>
+      </c>
+      <c r="N25" t="s">
+        <v>27</v>
+      </c>
+      <c r="P25" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>102</v>
+      </c>
+      <c r="R25" t="s">
+        <v>9</v>
+      </c>
+      <c r="S25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" t="s">
+        <v>60</v>
+      </c>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>5</v>
+      </c>
+      <c r="L26" t="s">
+        <v>6</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>27</v>
+      </c>
+      <c r="P26" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>103</v>
+      </c>
+      <c r="R26" t="s">
+        <v>9</v>
+      </c>
+      <c r="S26" t="s">
         <v>22</v>
       </c>
     </row>

--- a/tables/budj_osob.xlsx
+++ b/tables/budj_osob.xlsx
@@ -14,18 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
   <si>
     <t>161-183-881 62</t>
   </si>
   <si>
-    <t>Баженов Данила Дмитриевич</t>
-  </si>
-  <si>
-    <t>КБ ОП</t>
-  </si>
-  <si>
-    <t>ПИ ЗО ОП</t>
+    <t>ОП</t>
+  </si>
+  <si>
+    <t>КБ</t>
   </si>
   <si>
     <t>88</t>
@@ -37,15 +34,21 @@
     <t>48</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>Оригинал</t>
   </si>
   <si>
-    <t>1 - БИ ОП 3 - Менедж ОП 4 - ИСТ ОП</t>
+    <t xml:space="preserve">1 - БИ ОП 3 - Менедж ОП 4 - ИСТ ОП </t>
   </si>
   <si>
     <t>госуслуги</t>
   </si>
   <si>
+    <t>Нет документа об образовании</t>
+  </si>
+  <si>
     <t>163-393-138 69</t>
   </si>
   <si>
@@ -61,10 +64,10 @@
     <t>146-853-262 87</t>
   </si>
   <si>
-    <t>ИВТ ИВТ ОП</t>
-  </si>
-  <si>
-    <t>ФИИТ ФИИТ ОП</t>
+    <t>ИВТ</t>
+  </si>
+  <si>
+    <t>ФИИТ</t>
   </si>
   <si>
     <t>221</t>
@@ -79,28 +82,16 @@
     <t>Копия</t>
   </si>
   <si>
-    <t>1 - ПРИ мех 1 - ПРИ мех ОП 2 - ПМИ 2 - ПМИ ОП 3 - МКН 3 - МКН ОП</t>
-  </si>
-  <si>
-    <t>Нет документа об образовании</t>
+    <t xml:space="preserve">1 - ПРИ мех 1 - ПРИ мех ОП 2 - ПМИ 2 - ПМИ ОП 3 - МКН 3 - МКН ОП </t>
   </si>
   <si>
     <t>162-211-319 11</t>
   </si>
   <si>
-    <t>Тарасов Андрей Александрович</t>
-  </si>
-  <si>
-    <t>ПИ Ц</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ПИ ОП </t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>1 - ЭиН ОП 2 - Экон ОП 4 - Тамож ОП 5 - Менедж ОП</t>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 - ЭиН ОП 2 - Экон ОП 4 - Тамож ОП 5 - Менедж ОП </t>
   </si>
   <si>
     <t>000122254</t>
@@ -115,10 +106,7 @@
     <t>161-382-317 47</t>
   </si>
   <si>
-    <t>ПИ ПИ ОП</t>
-  </si>
-  <si>
-    <t>МОАИС МОАИС ОП</t>
+    <t>МОАИС</t>
   </si>
   <si>
     <t>260</t>
@@ -130,16 +118,13 @@
     <t>85</t>
   </si>
   <si>
-    <t>4 - БИ 4 - БИ ОП 5 - ПРИ мех 5 - ПРИ мех ОП</t>
-  </si>
-  <si>
-    <t>000124094</t>
-  </si>
-  <si>
-    <t>ФИИТ ФИИТ ОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ИВТ ОК ИВТ </t>
+    <t xml:space="preserve">4 - БИ 4 - БИ ОП 5 - ПРИ мех 5 - ПРИ мех ОП </t>
+  </si>
+  <si>
+    <t>124094</t>
+  </si>
+  <si>
+    <t>ОК</t>
   </si>
   <si>
     <t>262</t>
@@ -157,22 +142,10 @@
     <t>5</t>
   </si>
   <si>
-    <t>1 - БИ 1 - БИ ОК 2 - ПРИ мех 2 - ПРИ мех ОК 4 - ИСТ 4 - ИСТ ОК 5 - ПРИ соц 5 - ПРИ соц ОК</t>
-  </si>
-  <si>
-    <t>000125637</t>
-  </si>
-  <si>
-    <t>МОАИС МОАИС ОК</t>
-  </si>
-  <si>
-    <t>ИВТ ИВТ ОК</t>
-  </si>
-  <si>
-    <t>ПИ ПИ ОК</t>
-  </si>
-  <si>
-    <t>КБ ОК КБ</t>
+    <t xml:space="preserve">1 - БИ 1 - БИ ОК 2 - ПРИ мех 2 - ПРИ мех ОК 4 - ИСТ 4 - ИСТ ОК 5 - ПРИ соц 5 - ПРИ соц ОК </t>
+  </si>
+  <si>
+    <t>125637</t>
   </si>
   <si>
     <t>200</t>
@@ -187,18 +160,6 @@
     <t>158-166-377 94</t>
   </si>
   <si>
-    <t>ФИИТ</t>
-  </si>
-  <si>
-    <t>ИВТ</t>
-  </si>
-  <si>
-    <t>МОАИС</t>
-  </si>
-  <si>
-    <t>КБ</t>
-  </si>
-  <si>
     <t>236</t>
   </si>
   <si>
@@ -208,10 +169,7 @@
     <t>73</t>
   </si>
   <si>
-    <t>000124038</t>
-  </si>
-  <si>
-    <t>ПИ ОК ПИ</t>
+    <t>124038</t>
   </si>
   <si>
     <t>266</t>
@@ -223,9 +181,6 @@
     <t>161-221-346 12</t>
   </si>
   <si>
-    <t>КБ КБ ОП</t>
-  </si>
-  <si>
     <t>192</t>
   </si>
   <si>
@@ -238,19 +193,7 @@
     <t>69</t>
   </si>
   <si>
-    <t>2 - БИ 2 - БИ ОП 3 - ПМИ 3 - ПМИ ОП 4 - Менедж 4 - Менедж ОП</t>
-  </si>
-  <si>
-    <t>ОП</t>
-  </si>
-  <si>
-    <t>ПИ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 - БИ 4 - БИ ОП 5 - ПРИ мех 5 - ПРИ мех ОП </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - ПРИ мех 1 - ПРИ мех ОП 2 - ПМИ 2 - ПМИ ОП 3 - МКН 3 - МКН ОП </t>
+    <t xml:space="preserve">2 - БИ 2 - БИ ОП 3 - ПМИ 3 - ПМИ ОП 4 - Менедж 4 - Менедж ОП </t>
   </si>
   <si>
     <t>145-468-868 04</t>
@@ -280,24 +223,9 @@
     <t xml:space="preserve">5 - ПРИ мех ОП 6 - ПРИ соц ОП </t>
   </si>
   <si>
-    <t>124094</t>
-  </si>
-  <si>
-    <t>ОК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - БИ 1 - БИ ОК 2 - ПРИ мех 2 - ПРИ мех ОК 4 - ИСТ 4 - ИСТ ОК 5 - ПРИ соц 5 - ПРИ соц ОК </t>
-  </si>
-  <si>
-    <t>125637</t>
-  </si>
-  <si>
     <t>176-329-755 05</t>
   </si>
   <si>
-    <t>124038</t>
-  </si>
-  <si>
     <t>126364</t>
   </si>
   <si>
@@ -317,15 +245,6 @@
   </si>
   <si>
     <t xml:space="preserve">1 - ПРИ мех 1 - ПРИ мех ОК </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - ЭиН ОП 2 - Экон ОП 4 - Тамож ОП 5 - Менедж ОП </t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 - БИ 2 - БИ ОП 3 - ПМИ 3 - ПМИ ОП 4 - Менедж 4 - Менедж ОП </t>
-  </si>
-  <si>
-    <t xml:space="preserve">1 - БИ ОП 3 - Менедж ОП 4 - ИСТ ОП </t>
   </si>
 </sst>
 </file>
@@ -657,7 +576,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -667,22 +586,25 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>5</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
         <v>6</v>
       </c>
       <c r="P1" t="s">
@@ -694,19 +616,22 @@
       <c r="S1" t="s">
         <v>9</v>
       </c>
+      <c r="T1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="S2" t="s">
         <v>9</v>
@@ -714,238 +639,262 @@
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M3" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="N3" t="s">
+        <v>6</v>
       </c>
       <c r="P3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="S3" t="s">
         <v>9</v>
       </c>
       <c r="T3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>23</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+      <c r="I4" t="s">
         <v>24</v>
       </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L4" t="s">
+        <v>6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>6</v>
+      </c>
+      <c r="N4" t="s">
+        <v>6</v>
+      </c>
+      <c r="P4" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q4" t="s">
         <v>25</v>
       </c>
-      <c r="I4" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" t="s">
-        <v>27</v>
-      </c>
-      <c r="P4" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>28</v>
-      </c>
       <c r="S4" t="s">
         <v>9</v>
       </c>
       <c r="T4" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J5" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="P5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="S5" t="s">
         <v>9</v>
       </c>
       <c r="T5" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
         <v>32</v>
       </c>
-      <c r="D6" t="s">
+      <c r="L6" t="s">
         <v>33</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6" t="s">
+        <v>6</v>
+      </c>
+      <c r="P6" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q6" t="s">
         <v>34</v>
       </c>
-      <c r="J6" t="s">
-        <v>35</v>
-      </c>
-      <c r="K6" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" t="s">
-        <v>37</v>
-      </c>
-      <c r="M6" t="s">
-        <v>19</v>
-      </c>
-      <c r="P6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>38</v>
-      </c>
       <c r="S6" t="s">
         <v>9</v>
       </c>
       <c r="T6" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>37</v>
+      </c>
+      <c r="K7" t="s">
+        <v>38</v>
+      </c>
+      <c r="L7" t="s">
         <v>39</v>
       </c>
-      <c r="F7" t="s">
+      <c r="M7" t="s">
         <v>40</v>
       </c>
-      <c r="I7" t="s">
+      <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="J7" t="s">
+      <c r="P7" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q7" t="s">
         <v>42</v>
       </c>
-      <c r="K7" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M7" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>47</v>
-      </c>
       <c r="S7" t="s">
         <v>9</v>
       </c>
       <c r="T7" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="G8" t="s">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="H8" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="J8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="K8" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="L8" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M8" t="s">
-        <v>18</v>
+        <v>19</v>
+      </c>
+      <c r="N8" t="s">
+        <v>6</v>
       </c>
       <c r="P8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S8" t="s">
         <v>9</v>
       </c>
       <c r="T8" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F9" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="K9" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="L9" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M9" t="s">
-        <v>63</v>
+        <v>50</v>
+      </c>
+      <c r="N9" t="s">
+        <v>6</v>
       </c>
       <c r="P9" t="s">
         <v>7</v>
@@ -954,683 +903,332 @@
         <v>9</v>
       </c>
       <c r="T9" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>64</v>
+        <v>51</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
       </c>
       <c r="D10" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="K10" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="M10" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="N10" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="P10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="S10" t="s">
         <v>9</v>
       </c>
       <c r="T10" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>54</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>69</v>
+        <v>2</v>
       </c>
       <c r="J11" t="s">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="K11" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="M11" t="s">
-        <v>73</v>
+        <v>58</v>
+      </c>
+      <c r="N11" t="s">
+        <v>6</v>
       </c>
       <c r="P11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q11" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="S11" t="s">
         <v>9</v>
       </c>
       <c r="T11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s">
-        <v>57</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>59</v>
+        <v>16</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
       </c>
       <c r="J12" t="s">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="L12" t="s">
-        <v>37</v>
+        <v>6</v>
       </c>
       <c r="M12" t="s">
-        <v>19</v>
+        <v>62</v>
       </c>
       <c r="N12" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="P12" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q12" t="s">
-        <v>77</v>
-      </c>
-      <c r="R12" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="S12" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="T12" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>64</v>
       </c>
       <c r="C13" t="s">
-        <v>75</v>
-      </c>
-      <c r="G13" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" t="s">
-        <v>57</v>
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="L13" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="M13" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N13" t="s">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="P13" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>78</v>
-      </c>
-      <c r="R13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S13" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="T13" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" t="s">
-        <v>57</v>
+        <v>16</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
       </c>
       <c r="J14" t="s">
-        <v>80</v>
+        <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="L14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M14" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="N14" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="P14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="s">
-        <v>82</v>
-      </c>
-      <c r="R14" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="S14" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="T14" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C15" t="s">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>76</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" t="s">
-        <v>60</v>
+        <v>16</v>
       </c>
       <c r="J15" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="L15" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="M15" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="N15" t="s">
-        <v>84</v>
+        <v>6</v>
       </c>
       <c r="P15" t="s">
         <v>7</v>
       </c>
-      <c r="R15" t="s">
-        <v>9</v>
-      </c>
       <c r="S15" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="T15" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="F16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>71</v>
+      </c>
+      <c r="K16" t="s">
+        <v>72</v>
+      </c>
+      <c r="L16" t="s">
+        <v>46</v>
+      </c>
+      <c r="M16" t="s">
+        <v>73</v>
+      </c>
+      <c r="N16" t="s">
+        <v>6</v>
+      </c>
+      <c r="P16" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>74</v>
+      </c>
+      <c r="S16" t="s">
+        <v>9</v>
+      </c>
+      <c r="T16" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>75</v>
       </c>
-      <c r="D16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" t="s">
-        <v>57</v>
-      </c>
-      <c r="J16" t="s">
-        <v>27</v>
-      </c>
-      <c r="K16" t="s">
-        <v>27</v>
-      </c>
-      <c r="L16" t="s">
-        <v>27</v>
-      </c>
-      <c r="M16" t="s">
-        <v>27</v>
-      </c>
-      <c r="N16" t="s">
-        <v>27</v>
-      </c>
-      <c r="P16" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>87</v>
-      </c>
-      <c r="R16" t="s">
-        <v>9</v>
-      </c>
-      <c r="S16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19">
-      <c r="A17" t="s">
-        <v>88</v>
-      </c>
       <c r="C17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" t="s">
-        <v>57</v>
-      </c>
-      <c r="I17" t="s">
-        <v>58</v>
+        <v>36</v>
+      </c>
+      <c r="E17" t="s">
+        <v>16</v>
       </c>
       <c r="J17" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="L17" t="s">
-        <v>44</v>
+        <v>6</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="N17" t="s">
-        <v>46</v>
+        <v>6</v>
       </c>
       <c r="P17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="Q17" t="s">
-        <v>90</v>
-      </c>
-      <c r="R17" t="s">
-        <v>9</v>
+        <v>76</v>
       </c>
       <c r="S17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19">
-      <c r="A18" t="s">
-        <v>91</v>
-      </c>
-      <c r="C18" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" t="s">
-        <v>76</v>
-      </c>
-      <c r="G18" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" t="s">
-        <v>53</v>
-      </c>
-      <c r="K18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L18" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" t="s">
-        <v>18</v>
-      </c>
-      <c r="N18" t="s">
-        <v>27</v>
-      </c>
-      <c r="P18" t="s">
-        <v>20</v>
-      </c>
-      <c r="R18" t="s">
-        <v>9</v>
-      </c>
-      <c r="S18" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" t="s">
-        <v>75</v>
-      </c>
-      <c r="D19" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" t="s">
-        <v>58</v>
-      </c>
-      <c r="J19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K19" t="s">
-        <v>27</v>
-      </c>
-      <c r="L19" t="s">
-        <v>27</v>
-      </c>
-      <c r="M19" t="s">
-        <v>27</v>
-      </c>
-      <c r="N19" t="s">
-        <v>27</v>
-      </c>
-      <c r="P19" t="s">
-        <v>7</v>
-      </c>
-      <c r="R19" t="s">
-        <v>9</v>
-      </c>
-      <c r="S19" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19">
-      <c r="A20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" t="s">
-        <v>76</v>
-      </c>
-      <c r="E20" t="s">
-        <v>58</v>
-      </c>
-      <c r="J20" t="s">
-        <v>66</v>
-      </c>
-      <c r="K20" t="s">
-        <v>67</v>
-      </c>
-      <c r="L20" t="s">
-        <v>62</v>
-      </c>
-      <c r="M20" t="s">
-        <v>43</v>
-      </c>
-      <c r="N20" t="s">
-        <v>46</v>
-      </c>
-      <c r="P20" t="s">
-        <v>20</v>
-      </c>
-      <c r="R20" t="s">
-        <v>9</v>
-      </c>
-      <c r="S20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C21" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" t="s">
-        <v>58</v>
-      </c>
-      <c r="J21" t="s">
-        <v>95</v>
-      </c>
-      <c r="K21" t="s">
-        <v>96</v>
-      </c>
-      <c r="L21" t="s">
-        <v>55</v>
-      </c>
-      <c r="M21" t="s">
-        <v>97</v>
-      </c>
-      <c r="N21" t="s">
-        <v>27</v>
-      </c>
-      <c r="P21" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>98</v>
-      </c>
-      <c r="R21" t="s">
-        <v>9</v>
-      </c>
-      <c r="S21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19">
-      <c r="A22" t="s">
-        <v>99</v>
-      </c>
-      <c r="C22" t="s">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s">
-        <v>58</v>
-      </c>
-      <c r="J22" t="s">
-        <v>27</v>
-      </c>
-      <c r="K22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L22" t="s">
-        <v>27</v>
-      </c>
-      <c r="M22" t="s">
-        <v>27</v>
-      </c>
-      <c r="N22" t="s">
-        <v>27</v>
-      </c>
-      <c r="P22" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>100</v>
-      </c>
-      <c r="R22" t="s">
-        <v>9</v>
-      </c>
-      <c r="S22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19">
-      <c r="A23" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D23" t="s">
-        <v>76</v>
-      </c>
-      <c r="J23" t="s">
-        <v>61</v>
-      </c>
-      <c r="K23" t="s">
-        <v>44</v>
-      </c>
-      <c r="L23" t="s">
-        <v>62</v>
-      </c>
-      <c r="M23" t="s">
-        <v>63</v>
-      </c>
-      <c r="N23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P23" t="s">
-        <v>7</v>
-      </c>
-      <c r="R23" t="s">
-        <v>9</v>
-      </c>
-      <c r="S23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="C24" t="s">
-        <v>75</v>
-      </c>
-      <c r="I24" t="s">
-        <v>76</v>
-      </c>
-      <c r="J24" t="s">
-        <v>27</v>
-      </c>
-      <c r="K24" t="s">
-        <v>27</v>
-      </c>
-      <c r="L24" t="s">
-        <v>27</v>
-      </c>
-      <c r="M24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N24" t="s">
-        <v>27</v>
-      </c>
-      <c r="P24" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>101</v>
-      </c>
-      <c r="R24" t="s">
-        <v>9</v>
-      </c>
-      <c r="S24" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19">
-      <c r="A25" t="s">
-        <v>68</v>
-      </c>
-      <c r="C25" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" t="s">
-        <v>60</v>
-      </c>
-      <c r="J25" t="s">
-        <v>70</v>
-      </c>
-      <c r="K25" t="s">
-        <v>71</v>
-      </c>
-      <c r="L25" t="s">
-        <v>72</v>
-      </c>
-      <c r="M25" t="s">
-        <v>73</v>
-      </c>
-      <c r="N25" t="s">
-        <v>27</v>
-      </c>
-      <c r="P25" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>102</v>
-      </c>
-      <c r="R25" t="s">
-        <v>9</v>
-      </c>
-      <c r="S25" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19">
-      <c r="A26" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" t="s">
-        <v>75</v>
-      </c>
-      <c r="E26" t="s">
-        <v>60</v>
-      </c>
-      <c r="J26" t="s">
-        <v>4</v>
-      </c>
-      <c r="K26" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" t="s">
-        <v>6</v>
-      </c>
-      <c r="M26" t="s">
-        <v>27</v>
-      </c>
-      <c r="N26" t="s">
-        <v>27</v>
-      </c>
-      <c r="P26" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>103</v>
-      </c>
-      <c r="R26" t="s">
-        <v>9</v>
-      </c>
-      <c r="S26" t="s">
-        <v>22</v>
+        <v>9</v>
+      </c>
+      <c r="T17" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/tables/budj_osob.xlsx
+++ b/tables/budj_osob.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="81">
   <si>
     <t>161-183-881 62</t>
   </si>
@@ -245,6 +245,18 @@
   </si>
   <si>
     <t xml:space="preserve">1 - ПРИ мех 1 - ПРИ мех ОК </t>
+  </si>
+  <si>
+    <t>123539</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 - ИСТ 2 - ИСТ ОК 3 - БСТ 3 - БСТ ОК 5 - МК 5 - МК ОК </t>
   </si>
 </sst>
 </file>
@@ -576,7 +588,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1231,6 +1243,47 @@
         <v>10</v>
       </c>
     </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" t="s">
+        <v>39</v>
+      </c>
+      <c r="L18" t="s">
+        <v>79</v>
+      </c>
+      <c r="M18" t="s">
+        <v>72</v>
+      </c>
+      <c r="N18" t="s">
+        <v>6</v>
+      </c>
+      <c r="P18" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>80</v>
+      </c>
+      <c r="S18" t="s">
+        <v>9</v>
+      </c>
+      <c r="T18" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
